--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H2">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>54.04106827258499</v>
+        <v>4.394768861911333</v>
       </c>
       <c r="R2">
-        <v>486.369614453265</v>
+        <v>39.552919757202</v>
       </c>
       <c r="S2">
-        <v>0.01928555467167201</v>
+        <v>0.001791466829793949</v>
       </c>
       <c r="T2">
-        <v>0.01928555467167201</v>
+        <v>0.001791466829793949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H3">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>159.109945195015</v>
+        <v>88.93923476063321</v>
       </c>
       <c r="R3">
-        <v>1431.989506755135</v>
+        <v>800.453112845699</v>
       </c>
       <c r="S3">
-        <v>0.0567813265901307</v>
+        <v>0.03625485069802653</v>
       </c>
       <c r="T3">
-        <v>0.05678132659013071</v>
+        <v>0.03625485069802653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H4">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>123.000271364655</v>
+        <v>58.38402670509299</v>
       </c>
       <c r="R4">
-        <v>1107.002442281895</v>
+        <v>525.4562403458369</v>
       </c>
       <c r="S4">
-        <v>0.04389492165603483</v>
+        <v>0.02379944213641523</v>
       </c>
       <c r="T4">
-        <v>0.04389492165603483</v>
+        <v>0.02379944213641523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I5">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J5">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>310.2868389189534</v>
+        <v>45.14185547550667</v>
       </c>
       <c r="R5">
-        <v>2792.58155027058</v>
+        <v>406.27669927956</v>
       </c>
       <c r="S5">
-        <v>0.1107315970455653</v>
+        <v>0.01840145392414363</v>
       </c>
       <c r="T5">
-        <v>0.1107315970455652</v>
+        <v>0.01840145392414363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I6">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J6">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
-        <v>913.5593265126912</v>
+        <v>913.5593265126913</v>
       </c>
       <c r="R6">
-        <v>8222.03393861422</v>
+        <v>8222.033938614222</v>
       </c>
       <c r="S6">
-        <v>0.3260205414224616</v>
+        <v>0.3723998421579345</v>
       </c>
       <c r="T6">
-        <v>0.3260205414224616</v>
+        <v>0.3723998421579345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I7">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J7">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>706.2289219636602</v>
+        <v>599.7046439555401</v>
       </c>
       <c r="R7">
-        <v>6356.060297672941</v>
+        <v>5397.34179559986</v>
       </c>
       <c r="S7">
-        <v>0.2520308521020778</v>
+        <v>0.2444613155041999</v>
       </c>
       <c r="T7">
-        <v>0.2520308521020777</v>
+        <v>0.2444613155041999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H8">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N8">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q8">
-        <v>86.15772205161332</v>
+        <v>21.52352409912466</v>
       </c>
       <c r="R8">
-        <v>775.41949846452</v>
+        <v>193.711716892122</v>
       </c>
       <c r="S8">
-        <v>0.03074697655183176</v>
+        <v>0.008773767334622219</v>
       </c>
       <c r="T8">
-        <v>0.03074697655183176</v>
+        <v>0.008773767334622219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H9">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N9">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q9">
-        <v>253.6691237229644</v>
+        <v>435.5828083062488</v>
       </c>
       <c r="R9">
-        <v>2283.02211350668</v>
+        <v>3920.24527475624</v>
       </c>
       <c r="S9">
-        <v>0.09052651826566772</v>
+        <v>0.1775593159112732</v>
       </c>
       <c r="T9">
-        <v>0.09052651826566774</v>
+        <v>0.1775593159112732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H10">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N10">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q10">
-        <v>196.09943939404</v>
+        <v>285.937678470873</v>
       </c>
       <c r="R10">
-        <v>1764.89495454636</v>
+        <v>2573.439106237857</v>
       </c>
       <c r="S10">
-        <v>0.06998171169455841</v>
+        <v>0.1165585455035908</v>
       </c>
       <c r="T10">
-        <v>0.06998171169455841</v>
+        <v>0.1165585455035908</v>
       </c>
     </row>
   </sheetData>
